--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Logboek</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Aanmaken documentation + planning + zoeken componenten</t>
+  </si>
+  <si>
+    <t>info verzamelen en bespreken hoe we het zouden aanpakken + informatie opzoeken over verschillende componenten</t>
   </si>
 </sst>
 </file>
@@ -58,7 +61,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +71,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,12 +108,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -125,7 +136,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,16 +430,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="2" width="91.6640625" customWidth="1"/>
+    <col min="2" max="3" width="102.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -456,6 +467,23 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>43145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>43152</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec\Documents\School\3ejaar\Github\DocumentationProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Logboek</t>
   </si>
@@ -39,12 +34,15 @@
   </si>
   <si>
     <t>info verzamelen en bespreken hoe we het zouden aanpakken + informatie opzoeken over verschillende componenten</t>
+  </si>
+  <si>
+    <t>Auto testen met enkele sensoren + sensoren bestellen om te testen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,16 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" customWidth="1"/>
-    <col min="2" max="3" width="102.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="3" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -476,11 +474,19 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5">
+        <v>43421</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>43152</v>
       </c>
     </row>
